--- a/chainsmt/evidence.xlsx
+++ b/chainsmt/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\samet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F51B5-6765-45F7-BB6B-6BE938FF7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C769E-31A7-4104-9423-19DDAE77028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +125,48 @@
   </si>
   <si>
     <t>omniflix1m0u69jrtd70wrkxkm0jwx64eu7432k4lp9zu3t</t>
+  </si>
+  <si>
+    <t>79DAEDA84C1D760394B3B579B70B0379B94368AE9006E663C249D733E65AC8F0</t>
+  </si>
+  <si>
+    <t>smtnftcoll</t>
+  </si>
+  <si>
+    <t>1B557A1D5C5956E4B31C3B2F075D95BBB2F38A3978FDB13095BC3C29440D1855</t>
+  </si>
+  <si>
+    <t>B70D2752DD3489652D059C5048D36AD767835179B16C3B52C63FCF9E15D562B6</t>
+  </si>
+  <si>
+    <t>nft0001</t>
+  </si>
+  <si>
+    <t>nft0002</t>
+  </si>
+  <si>
+    <t>25C4BC866A388160FCDA5F6ED2C074FEE91974E88F7E4C869526DC8FEC104642</t>
+  </si>
+  <si>
+    <t>juno1qm2k2nc0c56hyhxuc8kamwqaw75se7hw7whqqaqpvsmuvxjxk4usrnl053</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>ibc/448DC656EA7119B20AEEEE9FA9D68182BA51C07FECD2A3BC0048C9FECD6D056D</t>
+  </si>
+  <si>
+    <t>1CE694CCEADD3EA4EF2FBBB9D6D1FB61A64544E57DB0D4E68FFA402020EFBAC7</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>92908FFCE8A62F8059AB91790C3F9B3CCC9D12A592B60E5B4230FAD1B3DFBF7F</t>
+  </si>
+  <si>
+    <t>3AFAA48CD81221023882C045A24621C5212600B591A944BA2B8CD893AA6254A2</t>
   </si>
 </sst>
 </file>
@@ -537,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,54 +579,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1061,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1054,10 +1080,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1298,9 +1324,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1321,13 +1349,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1381,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1367,16 +1408,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1432,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1415,17 +1458,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1483,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1465,16 +1510,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1534,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1515,16 +1562,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/chainsmt/evidence.xlsx
+++ b/chainsmt/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\samet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C769E-31A7-4104-9423-19DDAE77028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9536B7B2-5B9A-401E-87E4-E416F782ABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -167,6 +152,171 @@
   </si>
   <si>
     <t>3AFAA48CD81221023882C045A24621C5212600B591A944BA2B8CD893AA6254A2</t>
+  </si>
+  <si>
+    <t>nft0007</t>
+  </si>
+  <si>
+    <t>ibc/670502CD2019B66015368FEE425E7824CC998D5E33FFCAE3C3379EC636CF1E15</t>
+  </si>
+  <si>
+    <t>ibc/DD8DDFD25E1461C7972CF2B458EDC6DF79A184649501415BE5C40EF5DC8704D0</t>
+  </si>
+  <si>
+    <t>nft0008</t>
+  </si>
+  <si>
+    <t>ibc/03610A110D54382EAE0DBD081F727F7B1748298F60104A97A6415E4248103BB3</t>
+  </si>
+  <si>
+    <t>nft0009</t>
+  </si>
+  <si>
+    <t>ibc/806C43D5E797C414524050D59D2D65B99928AD98B817405656480BEFD20DCE89</t>
+  </si>
+  <si>
+    <t>nft0010</t>
+  </si>
+  <si>
+    <t>nft0011</t>
+  </si>
+  <si>
+    <t>ibc/E5F3643010B6060145767F43964AF51AC95DE1F6DA73DEE1D7C7019079B52580</t>
+  </si>
+  <si>
+    <t>nft0012</t>
+  </si>
+  <si>
+    <t>ibc/4AB18E64C6451496B929ECF7626E54C3B3EDA97F830866D27FACB6F38F54EAEC</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>B9D0BB44FD38E9B6DE5A81DFD598A64D646DF5E53D958B8C8C1CE025017FD99A</t>
+  </si>
+  <si>
+    <t>488E5C16FCF81AC109422BA1C1A5642B30DE89BF2315689E888717BE029B6F01</t>
+  </si>
+  <si>
+    <t>119AF48A28756E6AA96E37AC5C00E30A65EF8E24F1B69ADA69C230EEB3803A43</t>
+  </si>
+  <si>
+    <t>BE9E31A9051BF0DF09DCC8D43458A95EDD0A4E9251C60F228EC70C2E3A7F69F0</t>
+  </si>
+  <si>
+    <t>7327FECC3F7CCB169E8ADF19C2DE2198AD147CE3081DCB339D0EA899E3EF67B9</t>
+  </si>
+  <si>
+    <t>364874162CBF52180FB66B7757D7640DE9F4BCA339CA30468EAAAC7FA97FAFEB</t>
+  </si>
+  <si>
+    <t>CAABB51B88D3BBE6E77E557DB3EE8225783DE404B3251ACC6313977642D1ED9A</t>
+  </si>
+  <si>
+    <t>C148BCC81B05C33EC294B59F398194280FF089DDB8C29A47BAF54AF2008E8ECC</t>
+  </si>
+  <si>
+    <t>AE3F17C85720A2C728A8674F37C9B262FF5CBD1799186EDB33A7AFDD22465619</t>
+  </si>
+  <si>
+    <t>552EB567986DC2D98A1541A6A3D18EB48453AC49767AE62A2459FD44DCC2229D</t>
+  </si>
+  <si>
+    <t>AB0EE024E9271992BD26BC06546BC37395338005DA0AE5A713F9A79419755E85</t>
+  </si>
+  <si>
+    <t>2AAE58763F7988FE18C7F5724C08980732CFF6B13D280B78C4464D06C1596808</t>
+  </si>
+  <si>
+    <t>4EA7C65CF25C3368C6318304E2C29F341C98CEC2A691EC97AD00EBEEAC1A35B5</t>
+  </si>
+  <si>
+    <t>225AE59696BCE6E48B8FFDE1EAE07C3A4CAECD09D68180739D2BF3416F1064D8</t>
+  </si>
+  <si>
+    <t>7B5DF93A8635467AA29A93116825B681C11A4C7286376A247BD699A3DB2ADC12</t>
+  </si>
+  <si>
+    <t>104240854FDA29427A27502D4714E33C210A5D0F3A714A9A918EE462BAAB6463</t>
+  </si>
+  <si>
+    <t>80AFF5A5349F6EC2AAF8D42F6FAE9D3BF666A2383963162F5099E573D26A1055</t>
+  </si>
+  <si>
+    <t>BB547EC3D3209B643BE39FF328E2EFD9A5FE225C4B9DF88BC8B72C631A7415C5</t>
+  </si>
+  <si>
+    <t>3F3632E5B5161E6D3F443586E0753F9014C2EB6CB59EE9CDA64166A7BAD7B79E</t>
+  </si>
+  <si>
+    <t>85FC7529D1985CC62A64C45CE3317CCCCE0B4FC741C9D833F23A71D73F90F7D1</t>
+  </si>
+  <si>
+    <t>716DD76343F14007F318330218935ED45B01DCC2DE9B52081B2CB693C27C3C64</t>
+  </si>
+  <si>
+    <t>9C0CED972EA54D0C5FB187D447498BA358EF72AA24F096ED649FA6DE82D4A913</t>
+  </si>
+  <si>
+    <t>A62F9CCE071655B5278A3A0663D3FD4E3F0F44333C530B2F726C54438742BC52</t>
+  </si>
+  <si>
+    <t>73F8E97DEB27026D77D68E73BDAD4B520890DA5552DC32052CD671DD7FACD290</t>
+  </si>
+  <si>
+    <t>FB697AABCE5C7B0CAB0A66143CE3229423CFD955EC05975989CCBE52244E29ED</t>
+  </si>
+  <si>
+    <t>98F32549A3282BFBAFA32E552D06E2C8AD73467A208A704F90F778CD55B9F35E</t>
+  </si>
+  <si>
+    <t>166F84ED68219BC11BED397C7E4DA8ED8F2AC3E9C7362271682FF7C4CAF78503</t>
+  </si>
+  <si>
+    <t>3244F2EF1CD7D2B570EF1EFFA868225B248F21301F2EE4F26CD3D94BC3FACCBA</t>
+  </si>
+  <si>
+    <t>7CE8870605E75BD8559F21226A39FB75E2DFB26C5DA953E184176EEC9392CF4C</t>
+  </si>
+  <si>
+    <t>609FE729E824233063AA00FA5D71B6F4E4A1A2DCE12AB1F978282857EEE9D3D1</t>
+  </si>
+  <si>
+    <t>639B548C7038610EADC3A0BE184A57E4C940B8AB97A0227B51F0771B39DDEF2C</t>
+  </si>
+  <si>
+    <t>04DAD1517678A19CC6ADA2A284D4F30E0834CEF15ADDDC57052D68AA3C270905</t>
+  </si>
+  <si>
+    <t>2DFB467215240326F92236D2AE873B513950E57A4F80247718DFEA48A46C6B39</t>
+  </si>
+  <si>
+    <t>69BCAF261E36C0ABACF80CA3B6BED9AE640675128F419E311805831C6BD76D75</t>
+  </si>
+  <si>
+    <t>5531E39F1D3739D681552EB9A809F8A478C1223DD69BB60E0DD3B22A5D34A5D4</t>
+  </si>
+  <si>
+    <t>B92CF3DA63B077177181F2AD70A50E6DCA9681E91430C86F70AB35DD313DC766</t>
+  </si>
+  <si>
+    <t>3E474D7C33B67E51304B578C2DCCD3899AE691B585535964CE9069D478AE76A8</t>
+  </si>
+  <si>
+    <t>B9A8CA34A589B7EDA4B14B3A8243DFA37FE2F15B58F182323C7ACD3F96B618E4</t>
+  </si>
+  <si>
+    <t>F6BAF5C7E115B58EA3A46D8FDAD2EC19311C836F8A4D978C561B6A9679EE2CB3</t>
+  </si>
+  <si>
+    <t>9D1D4C897A835C3259E394A2A328AEF0984E8CE645622302DE4FBB8367FB08E9</t>
   </si>
 </sst>
 </file>
@@ -240,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +402,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -579,54 +732,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +794,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,18 +806,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +832,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -687,18 +844,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +870,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,18 +882,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +908,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -759,18 +920,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -783,9 +944,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -803,20 +966,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -829,9 +1006,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -849,20 +1028,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -875,9 +1068,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,20 +1090,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -921,9 +1130,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,20 +1152,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -967,9 +1192,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,20 +1214,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1013,9 +1254,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1033,20 +1276,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1075,15 +1332,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1096,9 +1353,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,20 +1375,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1142,9 +1431,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1162,20 +1453,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1190,6 +1511,78 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1217,8 +1610,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1251,74 +1644,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
@@ -1341,32 +1666,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1397,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1408,16 +1733,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1448,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1459,16 +1784,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1510,16 +1835,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1859,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
@@ -1551,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1562,16 +1887,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1911,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1596,18 +1923,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1949,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1632,18 +1961,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/chainsmt/evidence.xlsx
+++ b/chainsmt/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\samet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9536B7B2-5B9A-401E-87E4-E416F782ABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2EEB98-FACA-458C-8735-2D14FC212959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -317,6 +312,24 @@
   </si>
   <si>
     <t>9D1D4C897A835C3259E394A2A328AEF0984E8CE645622302DE4FBB8367FB08E9</t>
+  </si>
+  <si>
+    <t>7FC60EA665D5924936260FAEB908D5D427464468B47B5B592B8939F721EAD487</t>
+  </si>
+  <si>
+    <t>221B02C29AD45CD805578A16C6285A5CD7C0F264BC794006E38DE421E06A6D8B</t>
+  </si>
+  <si>
+    <t>85518A8C2AB9E7763C65F78157064B6457CD55C9BCA54597D104518B29BBC180</t>
+  </si>
+  <si>
+    <t>FF79500BB197FC1576F46567BF304C29C8AE7A0606A355E9564D8CAF00224932</t>
+  </si>
+  <si>
+    <t>937C838DE9AFEAA488027FB7698D2DEAFB655F225033C596A92B4E522F269973</t>
+  </si>
+  <si>
+    <t>9C797DC07209555D3E55F761659B9A0F37AC09DC602C6796D019CBE0A985B4A4</t>
   </si>
 </sst>
 </file>
@@ -732,54 +745,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -806,10 +819,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,15 +876,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,27 +895,27 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -882,10 +933,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,15 +952,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,34 +971,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,48 +1036,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1023,55 +1098,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,55 +1160,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,23 +1222,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,31 +1246,31 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,15 +1284,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,39 +1300,76 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,85 +1383,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1370,133 +1461,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1527,6 +1540,42 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1540,14 +1589,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1576,14 +1625,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1597,46 +1648,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC8A6AB-AAB4-44E5-B202-9868F0C5370B}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1666,32 +1713,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1722,27 +1769,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1773,27 +1820,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1824,27 +1871,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1876,27 +1923,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1923,18 +1970,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1961,18 +2008,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
